--- a/DDAf_2025_Tableau_annexe_Tab40.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab40.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{766BAF6B-4E1E-45A2-8238-A0683D330E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D177E3-10CA-4B2B-B88E-7DD8CE0E154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0DD2131B-478F-4C98-84FB-109B72BA665F}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{70FD6A3B-427A-4346-8D93-BF83801E9997}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab40" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Table 40: Projected youth education profiles</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Update will be coming soon</t>
-  </si>
-  <si>
     <t>SWZ</t>
   </si>
   <si>
@@ -549,13 +546,13 @@
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -566,7 +563,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,13 +632,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -941,7 +931,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -986,8 +976,11 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1001,12 +994,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1019,19 +1006,19 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,25 +1072,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1118,13 +1105,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1151,28 +1138,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1456,11 +1443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDCADF6-558F-470B-BA1D-B0B66CBC0645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DAFCBD-E745-41BF-B7DC-FBBE2CF2DE3E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1468,11 +1455,11 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="15.5703125" style="81" customWidth="1"/>
+    <col min="3" max="11" width="15.5703125" style="80" customWidth="1"/>
     <col min="12" max="26" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1486,7 +1473,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1521,1782 +1508,3489 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="11">
+        <v>25.803307</v>
+      </c>
+      <c r="D3" s="12">
+        <v>66.486800000000002</v>
+      </c>
+      <c r="E3" s="13">
+        <v>7.7075719999999999</v>
+      </c>
+      <c r="F3" s="11">
+        <v>6.1684229999999998</v>
+      </c>
+      <c r="G3" s="12">
+        <v>77.117914999999996</v>
+      </c>
+      <c r="H3" s="13">
+        <v>16.714863999999999</v>
+      </c>
+      <c r="I3" s="11">
+        <v>3.185648</v>
+      </c>
+      <c r="J3" s="12">
+        <v>67.487166000000002</v>
+      </c>
+      <c r="K3" s="13">
+        <v>29.327186999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="15">
+        <v>5.8286720000000001</v>
+      </c>
+      <c r="D4" s="16">
+        <v>45.083897999999998</v>
+      </c>
+      <c r="E4" s="17">
+        <v>49.102148999999997</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3.5735209999999999</v>
+      </c>
+      <c r="G4" s="16">
+        <v>32.056238999999998</v>
+      </c>
+      <c r="H4" s="17">
+        <v>64.358524000000003</v>
+      </c>
+      <c r="I4" s="15">
+        <v>2.1284100000000001</v>
+      </c>
+      <c r="J4" s="16">
+        <v>28.092662000000001</v>
+      </c>
+      <c r="K4" s="17">
+        <v>69.743650000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="15">
+        <v>26.359338000000001</v>
+      </c>
+      <c r="D5" s="19">
+        <v>49.645389999999999</v>
+      </c>
+      <c r="E5" s="20">
+        <v>24.024823000000001</v>
+      </c>
+      <c r="F5" s="15">
+        <v>20.320715</v>
+      </c>
+      <c r="G5" s="19">
+        <v>45.347003000000001</v>
+      </c>
+      <c r="H5" s="20">
+        <v>34.305993999999998</v>
+      </c>
+      <c r="I5" s="15">
+        <v>10.955279000000001</v>
+      </c>
+      <c r="J5" s="19">
+        <v>41.968775000000001</v>
+      </c>
+      <c r="K5" s="20">
+        <v>47.023021999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="15">
+        <v>22.628747000000001</v>
+      </c>
+      <c r="D6" s="19">
+        <v>55.803227999999997</v>
+      </c>
+      <c r="E6" s="20">
+        <v>21.568024999999999</v>
+      </c>
+      <c r="F6" s="15">
+        <v>16.246188</v>
+      </c>
+      <c r="G6" s="19">
+        <v>48.461325000000002</v>
+      </c>
+      <c r="H6" s="20">
+        <v>35.306348999999997</v>
+      </c>
+      <c r="I6" s="15">
+        <v>8.4743410000000008</v>
+      </c>
+      <c r="J6" s="19">
+        <v>43.772537999999997</v>
+      </c>
+      <c r="K6" s="20">
+        <v>47.739251000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="15">
+        <v>24.853704</v>
+      </c>
+      <c r="D7" s="19">
+        <v>57.406793999999998</v>
+      </c>
+      <c r="E7" s="20">
+        <v>17.737660999999999</v>
+      </c>
+      <c r="F7" s="15">
+        <v>12.564526000000001</v>
+      </c>
+      <c r="G7" s="19">
+        <v>55.342188999999998</v>
+      </c>
+      <c r="H7" s="20">
+        <v>32.093285000000002</v>
+      </c>
+      <c r="I7" s="15">
+        <v>6.522119</v>
+      </c>
+      <c r="J7" s="19">
+        <v>44.719439000000001</v>
+      </c>
+      <c r="K7" s="20">
+        <v>48.759608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="15">
+        <v>56.985199999999999</v>
+      </c>
+      <c r="D8" s="19">
+        <v>33.695372999999996</v>
+      </c>
+      <c r="E8" s="20">
+        <v>9.3205919999999995</v>
+      </c>
+      <c r="F8" s="15">
+        <v>37.567577</v>
+      </c>
+      <c r="G8" s="19">
+        <v>43.408861999999999</v>
+      </c>
+      <c r="H8" s="20">
+        <v>19.023561000000001</v>
+      </c>
+      <c r="I8" s="15">
+        <v>19.047820999999999</v>
+      </c>
+      <c r="J8" s="19">
+        <v>38.153745999999998</v>
+      </c>
+      <c r="K8" s="20">
+        <v>42.799140999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="21">
+        <v>16.266856000000001</v>
+      </c>
+      <c r="D9" s="19">
+        <v>55.542937999999999</v>
+      </c>
+      <c r="E9" s="20">
+        <v>28.190206</v>
+      </c>
+      <c r="F9" s="21">
+        <v>12.677878</v>
+      </c>
+      <c r="G9" s="19">
+        <v>46.226821999999999</v>
+      </c>
+      <c r="H9" s="20">
+        <v>41.073739000000003</v>
+      </c>
+      <c r="I9" s="21">
+        <v>6.8295880000000002</v>
+      </c>
+      <c r="J9" s="19">
+        <v>37.846389000000002</v>
+      </c>
+      <c r="K9" s="20">
+        <v>55.334932999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="21">
+        <v>4.4060189999999997</v>
+      </c>
+      <c r="D10" s="19">
+        <v>46.804062000000002</v>
+      </c>
+      <c r="E10" s="20">
+        <v>48.790590000000002</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1.7021820000000001</v>
+      </c>
+      <c r="G10" s="19">
+        <v>37.829490999999997</v>
+      </c>
+      <c r="H10" s="20">
+        <v>60.468933</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1.1842490000000001</v>
+      </c>
+      <c r="J10" s="19">
+        <v>34.019025999999997</v>
+      </c>
+      <c r="K10" s="20">
+        <v>64.797332999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="15">
+        <v>32.466622000000001</v>
+      </c>
+      <c r="D11" s="16">
+        <v>47.747371999999999</v>
+      </c>
+      <c r="E11" s="17">
+        <v>19.787898999999999</v>
+      </c>
+      <c r="F11" s="15">
+        <v>22.747896999999998</v>
+      </c>
+      <c r="G11" s="16">
+        <v>45.737163000000002</v>
+      </c>
+      <c r="H11" s="17">
+        <v>31.514941</v>
+      </c>
+      <c r="I11" s="15">
+        <v>11.863946</v>
+      </c>
+      <c r="J11" s="16">
+        <v>40.189633999999998</v>
+      </c>
+      <c r="K11" s="17">
+        <v>47.946420000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C12" s="23">
+        <v>14.760571000000001</v>
+      </c>
+      <c r="D12" s="24">
+        <v>47.810017999999999</v>
+      </c>
+      <c r="E12" s="25">
+        <v>37.429411000000002</v>
+      </c>
+      <c r="F12" s="23">
+        <v>11.838283000000001</v>
+      </c>
+      <c r="G12" s="24">
+        <v>39.719174000000002</v>
+      </c>
+      <c r="H12" s="25">
+        <v>48.445771000000001</v>
+      </c>
+      <c r="I12" s="23">
+        <v>6.5400640000000001</v>
+      </c>
+      <c r="J12" s="24">
+        <v>37.318558000000003</v>
+      </c>
+      <c r="K12" s="25">
+        <v>56.139750999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="28">
+        <v>23.948453000000001</v>
+      </c>
+      <c r="D13" s="29">
+        <v>49.546332</v>
+      </c>
+      <c r="E13" s="30">
+        <v>26.505617999999998</v>
+      </c>
+      <c r="F13" s="28">
+        <v>14.670849</v>
+      </c>
+      <c r="G13" s="29">
+        <v>51.075226000000001</v>
+      </c>
+      <c r="H13" s="30">
+        <v>34.254196</v>
+      </c>
+      <c r="I13" s="28">
+        <v>7.6179230000000002</v>
+      </c>
+      <c r="J13" s="29">
+        <v>44.649217999999998</v>
+      </c>
+      <c r="K13" s="30">
+        <v>47.732447000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="21">
+        <v>57.082452000000004</v>
+      </c>
+      <c r="D14" s="19">
+        <v>38.699128000000002</v>
+      </c>
+      <c r="E14" s="20">
+        <v>4.2184200000000001</v>
+      </c>
+      <c r="F14" s="21">
+        <v>42.533054</v>
+      </c>
+      <c r="G14" s="19">
+        <v>46.499592</v>
+      </c>
+      <c r="H14" s="20">
+        <v>10.967352999999999</v>
+      </c>
+      <c r="I14" s="21">
+        <v>22.323022999999999</v>
+      </c>
+      <c r="J14" s="19">
+        <v>47.930380999999997</v>
+      </c>
+      <c r="K14" s="20">
+        <v>29.746596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="21">
+        <v>19.720203999999999</v>
+      </c>
+      <c r="D15" s="19">
+        <v>55.627808000000002</v>
+      </c>
+      <c r="E15" s="20">
+        <v>24.651987999999999</v>
+      </c>
+      <c r="F15" s="21">
+        <v>12.160545000000001</v>
+      </c>
+      <c r="G15" s="19">
+        <v>47.867978999999998</v>
+      </c>
+      <c r="H15" s="20">
+        <v>39.971477</v>
+      </c>
+      <c r="I15" s="21">
+        <v>6.6200530000000004</v>
+      </c>
+      <c r="J15" s="19">
+        <v>39.635283000000001</v>
+      </c>
+      <c r="K15" s="20">
+        <v>53.746381999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="21">
+        <v>59.415174</v>
+      </c>
+      <c r="D16" s="19">
+        <v>36.821421000000001</v>
+      </c>
+      <c r="E16" s="20">
+        <v>3.7767270000000002</v>
+      </c>
+      <c r="F16" s="21">
+        <v>49.569707000000001</v>
+      </c>
+      <c r="G16" s="19">
+        <v>39.365079000000001</v>
+      </c>
+      <c r="H16" s="20">
+        <v>11.065213</v>
+      </c>
+      <c r="I16" s="21">
+        <v>25.823854000000001</v>
+      </c>
+      <c r="J16" s="19">
+        <v>41.929557000000003</v>
+      </c>
+      <c r="K16" s="20">
+        <v>32.246589</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="C17" s="32">
+        <v>57.583973</v>
+      </c>
+      <c r="D17" s="33">
+        <v>35.695906000000001</v>
+      </c>
+      <c r="E17" s="34">
+        <v>6.7155259999999997</v>
+      </c>
+      <c r="F17" s="32">
+        <v>35.390393000000003</v>
+      </c>
+      <c r="G17" s="33">
+        <v>49.160407999999997</v>
+      </c>
+      <c r="H17" s="34">
+        <v>15.451561</v>
+      </c>
+      <c r="I17" s="32">
+        <v>17.871397999999999</v>
+      </c>
+      <c r="J17" s="33">
+        <v>48.374220999999999</v>
+      </c>
+      <c r="K17" s="34">
+        <v>33.756815000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
+      <c r="C18" s="32">
+        <v>17.231992999999999</v>
+      </c>
+      <c r="D18" s="33">
+        <v>68.948910999999995</v>
+      </c>
+      <c r="E18" s="34">
+        <v>13.819095000000001</v>
+      </c>
+      <c r="F18" s="32">
+        <v>12.556309000000001</v>
+      </c>
+      <c r="G18" s="33">
+        <v>61.377378999999998</v>
+      </c>
+      <c r="H18" s="34">
+        <v>26.062253999999999</v>
+      </c>
+      <c r="I18" s="32">
+        <v>6.9762639999999996</v>
+      </c>
+      <c r="J18" s="33">
+        <v>48.520124000000003</v>
+      </c>
+      <c r="K18" s="34">
+        <v>44.507739999999998</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
+      <c r="C19" s="15">
+        <v>26.191576000000001</v>
+      </c>
+      <c r="D19" s="16">
+        <v>53.334747999999998</v>
+      </c>
+      <c r="E19" s="17">
+        <v>20.473676000000001</v>
+      </c>
+      <c r="F19" s="15">
+        <v>19.060300999999999</v>
+      </c>
+      <c r="G19" s="16">
+        <v>50.612476999999998</v>
+      </c>
+      <c r="H19" s="17">
+        <v>30.326802000000001</v>
+      </c>
+      <c r="I19" s="15">
+        <v>10.455830000000001</v>
+      </c>
+      <c r="J19" s="16">
+        <v>45.651299000000002</v>
+      </c>
+      <c r="K19" s="17">
+        <v>43.893085999999997</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
+      <c r="C20" s="32">
+        <v>19.099695000000001</v>
+      </c>
+      <c r="D20" s="33">
+        <v>71.337742000000006</v>
+      </c>
+      <c r="E20" s="34">
+        <v>9.5625640000000001</v>
+      </c>
+      <c r="F20" s="32">
+        <v>12.501847</v>
+      </c>
+      <c r="G20" s="33">
+        <v>69.425151</v>
+      </c>
+      <c r="H20" s="34">
+        <v>18.087779000000001</v>
+      </c>
+      <c r="I20" s="32">
+        <v>6.6867020000000004</v>
+      </c>
+      <c r="J20" s="33">
+        <v>55.732531999999999</v>
+      </c>
+      <c r="K20" s="34">
+        <v>37.595793</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="35"/>
+      <c r="C21" s="32">
+        <v>14.982224</v>
+      </c>
+      <c r="D21" s="33">
+        <v>71.288302000000002</v>
+      </c>
+      <c r="E21" s="34">
+        <v>13.780260999999999</v>
+      </c>
+      <c r="F21" s="32">
+        <v>12.171239999999999</v>
+      </c>
+      <c r="G21" s="33">
+        <v>65.148582000000005</v>
+      </c>
+      <c r="H21" s="34">
+        <v>22.691562999999999</v>
+      </c>
+      <c r="I21" s="32">
+        <v>6.6103259999999997</v>
+      </c>
+      <c r="J21" s="33">
+        <v>56.239870000000003</v>
+      </c>
+      <c r="K21" s="34">
+        <v>37.126649999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="C22" s="36">
+        <v>25.99278</v>
+      </c>
+      <c r="D22" s="37">
+        <v>60.469313999999997</v>
+      </c>
+      <c r="E22" s="38">
+        <v>13.357400999999999</v>
+      </c>
+      <c r="F22" s="36">
+        <v>13.652695</v>
+      </c>
+      <c r="G22" s="37">
+        <v>57.964072000000002</v>
+      </c>
+      <c r="H22" s="38">
+        <v>28.143713000000002</v>
+      </c>
+      <c r="I22" s="36">
+        <v>7.711138</v>
+      </c>
+      <c r="J22" s="37">
+        <v>44.308446000000004</v>
+      </c>
+      <c r="K22" s="38">
+        <v>47.980415999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
+      <c r="C23" s="28">
+        <v>31.147048000000002</v>
+      </c>
+      <c r="D23" s="29">
+        <v>51.248272</v>
+      </c>
+      <c r="E23" s="30">
+        <v>17.605149000000001</v>
+      </c>
+      <c r="F23" s="28">
+        <v>22.082972999999999</v>
+      </c>
+      <c r="G23" s="29">
+        <v>50.055962000000001</v>
+      </c>
+      <c r="H23" s="30">
+        <v>27.860939999999999</v>
+      </c>
+      <c r="I23" s="28">
+        <v>11.818766999999999</v>
+      </c>
+      <c r="J23" s="29">
+        <v>45.372734999999999</v>
+      </c>
+      <c r="K23" s="30">
+        <v>42.809136000000002</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
+      <c r="C24" s="40">
+        <v>19.823993000000002</v>
+      </c>
+      <c r="D24" s="41">
+        <v>56.044465000000002</v>
+      </c>
+      <c r="E24" s="42">
+        <v>24.177859999999999</v>
+      </c>
+      <c r="F24" s="40">
+        <v>7.750953</v>
+      </c>
+      <c r="G24" s="41">
+        <v>54.574333000000003</v>
+      </c>
+      <c r="H24" s="42">
+        <v>37.642947999999997</v>
+      </c>
+      <c r="I24" s="40">
+        <v>4.1370389999999997</v>
+      </c>
+      <c r="J24" s="41">
+        <v>47.931480000000001</v>
+      </c>
+      <c r="K24" s="42">
+        <v>47.866838999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
+      <c r="C25" s="21">
+        <v>62.544978999999998</v>
+      </c>
+      <c r="D25" s="19">
+        <v>23.912331999999999</v>
+      </c>
+      <c r="E25" s="20">
+        <v>13.509976999999999</v>
+      </c>
+      <c r="F25" s="21">
+        <v>41.755561999999998</v>
+      </c>
+      <c r="G25" s="19">
+        <v>32.124352000000002</v>
+      </c>
+      <c r="H25" s="20">
+        <v>26.089607000000001</v>
+      </c>
+      <c r="I25" s="21">
+        <v>21.885732000000001</v>
+      </c>
+      <c r="J25" s="19">
+        <v>31.220731000000001</v>
+      </c>
+      <c r="K25" s="20">
+        <v>46.893537000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
+      <c r="C26" s="21">
+        <v>62.101182999999999</v>
+      </c>
+      <c r="D26" s="19">
+        <v>24.878243000000001</v>
+      </c>
+      <c r="E26" s="20">
+        <v>13.020574</v>
+      </c>
+      <c r="F26" s="21">
+        <v>41.678077000000002</v>
+      </c>
+      <c r="G26" s="19">
+        <v>32.907347999999999</v>
+      </c>
+      <c r="H26" s="20">
+        <v>25.422181999999999</v>
+      </c>
+      <c r="I26" s="21">
+        <v>21.876223</v>
+      </c>
+      <c r="J26" s="19">
+        <v>32.204053000000002</v>
+      </c>
+      <c r="K26" s="20">
+        <v>45.919725</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
+      <c r="C27" s="21">
+        <v>62.246045000000002</v>
+      </c>
+      <c r="D27" s="19">
+        <v>30.543894000000002</v>
+      </c>
+      <c r="E27" s="20">
+        <v>7.2097680000000004</v>
+      </c>
+      <c r="F27" s="21">
+        <v>37.008913999999997</v>
+      </c>
+      <c r="G27" s="19">
+        <v>44.746611000000001</v>
+      </c>
+      <c r="H27" s="20">
+        <v>18.244678</v>
+      </c>
+      <c r="I27" s="21">
+        <v>19.097224000000001</v>
+      </c>
+      <c r="J27" s="19">
+        <v>43.597557000000002</v>
+      </c>
+      <c r="K27" s="20">
+        <v>37.305638999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
+      <c r="C28" s="21">
+        <v>24.41825</v>
+      </c>
+      <c r="D28" s="19">
+        <v>51.52364</v>
+      </c>
+      <c r="E28" s="20">
+        <v>24.057431999999999</v>
+      </c>
+      <c r="F28" s="21">
+        <v>19.053533000000002</v>
+      </c>
+      <c r="G28" s="19">
+        <v>44.241045</v>
+      </c>
+      <c r="H28" s="20">
+        <v>36.705916999999999</v>
+      </c>
+      <c r="I28" s="21">
+        <v>10.230669000000001</v>
+      </c>
+      <c r="J28" s="19">
+        <v>39.216811</v>
+      </c>
+      <c r="K28" s="20">
+        <v>50.552016000000002</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
+      <c r="C29" s="21">
+        <v>47.390289000000003</v>
+      </c>
+      <c r="D29" s="19">
+        <v>43.945191999999999</v>
+      </c>
+      <c r="E29" s="20">
+        <v>8.6657829999999993</v>
+      </c>
+      <c r="F29" s="21">
+        <v>30.774315000000001</v>
+      </c>
+      <c r="G29" s="19">
+        <v>49.560955999999997</v>
+      </c>
+      <c r="H29" s="20">
+        <v>19.666446000000001</v>
+      </c>
+      <c r="I29" s="21">
+        <v>16.786766</v>
+      </c>
+      <c r="J29" s="19">
+        <v>42.757358000000004</v>
+      </c>
+      <c r="K29" s="20">
+        <v>40.453223000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
+      <c r="C30" s="21">
+        <v>2.961198</v>
+      </c>
+      <c r="D30" s="19">
+        <v>35.023826</v>
+      </c>
+      <c r="E30" s="20">
+        <v>62.014975999999997</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="G30" s="19">
+        <v>23.672457000000001</v>
+      </c>
+      <c r="H30" s="20">
+        <v>75.334987999999996</v>
+      </c>
+      <c r="I30" s="21">
+        <v>0.555836</v>
+      </c>
+      <c r="J30" s="19">
+        <v>19.201616999999999</v>
+      </c>
+      <c r="K30" s="20">
+        <v>80.293076999999997</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
+      <c r="C31" s="21">
+        <v>49.177028</v>
+      </c>
+      <c r="D31" s="19">
+        <v>38.136954000000003</v>
+      </c>
+      <c r="E31" s="20">
+        <v>12.688739999999999</v>
+      </c>
+      <c r="F31" s="21">
+        <v>26.565564999999999</v>
+      </c>
+      <c r="G31" s="19">
+        <v>46.949976999999997</v>
+      </c>
+      <c r="H31" s="20">
+        <v>26.484458</v>
+      </c>
+      <c r="I31" s="21">
+        <v>13.458736</v>
+      </c>
+      <c r="J31" s="19">
+        <v>39.183540000000001</v>
+      </c>
+      <c r="K31" s="20">
+        <v>47.355806000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
+      <c r="C32" s="21">
+        <v>0.43668099999999999</v>
+      </c>
+      <c r="D32" s="19">
+        <v>35.371178999999998</v>
+      </c>
+      <c r="E32" s="20">
+        <v>63.318776999999997</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>28.4</v>
+      </c>
+      <c r="H32" s="20">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I32" s="21">
+        <v>0</v>
+      </c>
+      <c r="J32" s="19">
+        <v>26.422764000000001</v>
+      </c>
+      <c r="K32" s="20">
+        <v>73.577235999999999</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
+      <c r="C33" s="21">
+        <v>67.699134999999998</v>
+      </c>
+      <c r="D33" s="19">
+        <v>23.595765</v>
+      </c>
+      <c r="E33" s="20">
+        <v>8.7074110000000005</v>
+      </c>
+      <c r="F33" s="21">
+        <v>45.228462999999998</v>
+      </c>
+      <c r="G33" s="19">
+        <v>34.703746000000002</v>
+      </c>
+      <c r="H33" s="20">
+        <v>20.069006999999999</v>
+      </c>
+      <c r="I33" s="21">
+        <v>23.585715</v>
+      </c>
+      <c r="J33" s="19">
+        <v>30.980646</v>
+      </c>
+      <c r="K33" s="20">
+        <v>45.433639999999997</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="35"/>
+      <c r="C34" s="32">
+        <v>52.921660000000003</v>
+      </c>
+      <c r="D34" s="33">
+        <v>29.224404</v>
+      </c>
+      <c r="E34" s="34">
+        <v>17.850033</v>
+      </c>
+      <c r="F34" s="32">
+        <v>34.391792000000002</v>
+      </c>
+      <c r="G34" s="33">
+        <v>31.116510999999999</v>
+      </c>
+      <c r="H34" s="34">
+        <v>34.491697000000002</v>
+      </c>
+      <c r="I34" s="32">
+        <v>18.035086</v>
+      </c>
+      <c r="J34" s="33">
+        <v>25.134734000000002</v>
+      </c>
+      <c r="K34" s="34">
+        <v>56.830179999999999</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
+      <c r="C35" s="21">
+        <v>56.975710999999997</v>
+      </c>
+      <c r="D35" s="19">
+        <v>18.734482</v>
+      </c>
+      <c r="E35" s="20">
+        <v>24.287316000000001</v>
+      </c>
+      <c r="F35" s="21">
+        <v>42.394235999999999</v>
+      </c>
+      <c r="G35" s="19">
+        <v>20.59402</v>
+      </c>
+      <c r="H35" s="20">
+        <v>37.012264999999999</v>
+      </c>
+      <c r="I35" s="21">
+        <v>22.638379</v>
+      </c>
+      <c r="J35" s="19">
+        <v>25.125630999999998</v>
+      </c>
+      <c r="K35" s="20">
+        <v>52.235990000000001</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
+      <c r="C36" s="21">
+        <v>20.760885999999999</v>
+      </c>
+      <c r="D36" s="19">
+        <v>71.074644000000006</v>
+      </c>
+      <c r="E36" s="20">
+        <v>8.1650840000000002</v>
+      </c>
+      <c r="F36" s="21">
+        <v>14.634096</v>
+      </c>
+      <c r="G36" s="19">
+        <v>66.484371999999993</v>
+      </c>
+      <c r="H36" s="20">
+        <v>18.881532</v>
+      </c>
+      <c r="I36" s="21">
+        <v>7.9422629999999996</v>
+      </c>
+      <c r="J36" s="19">
+        <v>55.985692</v>
+      </c>
+      <c r="K36" s="20">
+        <v>36.072045000000003</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="C37" s="23">
+        <v>39.096207999999997</v>
+      </c>
+      <c r="D37" s="24">
+        <v>47.527881000000001</v>
+      </c>
+      <c r="E37" s="25">
+        <v>13.375911</v>
+      </c>
+      <c r="F37" s="23">
+        <v>25.521198999999999</v>
+      </c>
+      <c r="G37" s="24">
+        <v>51.089790000000001</v>
+      </c>
+      <c r="H37" s="25">
+        <v>23.388546999999999</v>
+      </c>
+      <c r="I37" s="23">
+        <v>13.275681000000001</v>
+      </c>
+      <c r="J37" s="24">
+        <v>44.572526000000003</v>
+      </c>
+      <c r="K37" s="25">
+        <v>42.152734000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
+      <c r="C38" s="28">
+        <v>46.015591000000001</v>
+      </c>
+      <c r="D38" s="29">
+        <v>40.943868000000002</v>
+      </c>
+      <c r="E38" s="30">
+        <v>13.040179999999999</v>
+      </c>
+      <c r="F38" s="28">
+        <v>29.735885</v>
+      </c>
+      <c r="G38" s="29">
+        <v>45.981262999999998</v>
+      </c>
+      <c r="H38" s="30">
+        <v>24.282793999999999</v>
+      </c>
+      <c r="I38" s="28">
+        <v>15.618684</v>
+      </c>
+      <c r="J38" s="29">
+        <v>41.888582</v>
+      </c>
+      <c r="K38" s="30">
+        <v>42.492614000000003</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="47"/>
+      <c r="C39" s="44">
+        <v>10.168232</v>
+      </c>
+      <c r="D39" s="45">
+        <v>31.654195000000001</v>
+      </c>
+      <c r="E39" s="46">
+        <v>58.176510999999998</v>
+      </c>
+      <c r="F39" s="44">
+        <v>6.7627230000000003</v>
+      </c>
+      <c r="G39" s="45">
+        <v>23.495797</v>
+      </c>
+      <c r="H39" s="46">
+        <v>69.740762000000004</v>
+      </c>
+      <c r="I39" s="44">
+        <v>3.8384779999999998</v>
+      </c>
+      <c r="J39" s="45">
+        <v>21.512584</v>
+      </c>
+      <c r="K39" s="46">
+        <v>74.650398999999993</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="19"/>
+      <c r="C40" s="21">
+        <v>15.203874000000001</v>
+      </c>
+      <c r="D40" s="19">
+        <v>27.248114000000001</v>
+      </c>
+      <c r="E40" s="20">
+        <v>57.548755999999997</v>
+      </c>
+      <c r="F40" s="21">
+        <v>6.1096009999999996</v>
+      </c>
+      <c r="G40" s="19">
+        <v>24.748629000000001</v>
+      </c>
+      <c r="H40" s="20">
+        <v>69.141503</v>
+      </c>
+      <c r="I40" s="21">
+        <v>3.6133869999999999</v>
+      </c>
+      <c r="J40" s="19">
+        <v>24.094138999999998</v>
+      </c>
+      <c r="K40" s="20">
+        <v>72.293017000000006</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="35"/>
+      <c r="C41" s="32">
+        <v>11.819462</v>
+      </c>
+      <c r="D41" s="33">
+        <v>44.730235</v>
+      </c>
+      <c r="E41" s="34">
+        <v>43.444178999999998</v>
+      </c>
+      <c r="F41" s="32">
+        <v>6.1063479999999997</v>
+      </c>
+      <c r="G41" s="33">
+        <v>32.551411999999999</v>
+      </c>
+      <c r="H41" s="34">
+        <v>61.342239999999997</v>
+      </c>
+      <c r="I41" s="32">
+        <v>3.5142229999999999</v>
+      </c>
+      <c r="J41" s="33">
+        <v>30.047678000000001</v>
+      </c>
+      <c r="K41" s="34">
+        <v>66.438098999999994</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="35"/>
+      <c r="C42" s="32">
+        <v>51.145859000000002</v>
+      </c>
+      <c r="D42" s="33">
+        <v>39.348059999999997</v>
+      </c>
+      <c r="E42" s="34">
+        <v>9.506081</v>
+      </c>
+      <c r="F42" s="32">
+        <v>28.658850000000001</v>
+      </c>
+      <c r="G42" s="33">
+        <v>49.51661</v>
+      </c>
+      <c r="H42" s="34">
+        <v>21.824539999999999</v>
+      </c>
+      <c r="I42" s="32">
+        <v>14.880449</v>
+      </c>
+      <c r="J42" s="33">
+        <v>47.862886000000003</v>
+      </c>
+      <c r="K42" s="34">
+        <v>37.251375000000003</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="19"/>
+      <c r="C43" s="21">
+        <v>19.848362000000002</v>
+      </c>
+      <c r="D43" s="19">
+        <v>47.539304000000001</v>
+      </c>
+      <c r="E43" s="20">
+        <v>32.611195000000002</v>
+      </c>
+      <c r="F43" s="21">
+        <v>11.23662</v>
+      </c>
+      <c r="G43" s="19">
+        <v>32.685139999999997</v>
+      </c>
+      <c r="H43" s="20">
+        <v>56.078240000000001</v>
+      </c>
+      <c r="I43" s="21">
+        <v>6.3627989999999999</v>
+      </c>
+      <c r="J43" s="19">
+        <v>28.792963</v>
+      </c>
+      <c r="K43" s="20">
+        <v>64.841061999999994</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="C44" s="36">
+        <v>1.5933029999999999</v>
+      </c>
+      <c r="D44" s="37">
+        <v>53.466301000000001</v>
+      </c>
+      <c r="E44" s="38">
+        <v>44.944254000000001</v>
+      </c>
+      <c r="F44" s="36">
+        <v>0.33049099999999998</v>
+      </c>
+      <c r="G44" s="37">
+        <v>41.066825000000001</v>
+      </c>
+      <c r="H44" s="38">
+        <v>58.596074000000002</v>
+      </c>
+      <c r="I44" s="36">
+        <v>0.30200300000000002</v>
+      </c>
+      <c r="J44" s="37">
+        <v>38.374550999999997</v>
+      </c>
+      <c r="K44" s="38">
+        <v>61.32009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="39"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="31"/>
+      <c r="C45" s="28">
+        <v>15.124534000000001</v>
+      </c>
+      <c r="D45" s="29">
+        <v>33.796570000000003</v>
+      </c>
+      <c r="E45" s="30">
+        <v>51.078896</v>
+      </c>
+      <c r="F45" s="28">
+        <v>7.3598239999999997</v>
+      </c>
+      <c r="G45" s="29">
+        <v>27.274027</v>
+      </c>
+      <c r="H45" s="30">
+        <v>65.365560000000002</v>
+      </c>
+      <c r="I45" s="28">
+        <v>4.2179279999999997</v>
+      </c>
+      <c r="J45" s="29">
+        <v>25.709451000000001</v>
+      </c>
+      <c r="K45" s="30">
+        <v>70.072470999999993</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="43"/>
+      <c r="C46" s="40">
+        <v>33.926670999999999</v>
+      </c>
+      <c r="D46" s="41">
+        <v>50.319338000000002</v>
+      </c>
+      <c r="E46" s="42">
+        <v>15.753992</v>
+      </c>
+      <c r="F46" s="40">
+        <v>13.431044999999999</v>
+      </c>
+      <c r="G46" s="41">
+        <v>58.126434000000003</v>
+      </c>
+      <c r="H46" s="42">
+        <v>28.444258999999999</v>
+      </c>
+      <c r="I46" s="40">
+        <v>6.8956340000000003</v>
+      </c>
+      <c r="J46" s="41">
+        <v>49.645012000000001</v>
+      </c>
+      <c r="K46" s="42">
+        <v>43.461129</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="19"/>
+      <c r="C47" s="21">
+        <v>77.052477999999994</v>
+      </c>
+      <c r="D47" s="19">
+        <v>19.916063000000001</v>
+      </c>
+      <c r="E47" s="20">
+        <v>3.0314589999999999</v>
+      </c>
+      <c r="F47" s="21">
+        <v>56.427892999999997</v>
+      </c>
+      <c r="G47" s="19">
+        <v>34.835233000000002</v>
+      </c>
+      <c r="H47" s="20">
+        <v>8.7358530000000005</v>
+      </c>
+      <c r="I47" s="21">
+        <v>29.055249</v>
+      </c>
+      <c r="J47" s="19">
+        <v>41.486293000000003</v>
+      </c>
+      <c r="K47" s="20">
+        <v>29.458458</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="35"/>
+      <c r="C48" s="32">
+        <v>11.695216</v>
+      </c>
+      <c r="D48" s="33">
+        <v>60.543413999999999</v>
+      </c>
+      <c r="E48" s="34">
+        <v>27.820436999999998</v>
+      </c>
+      <c r="F48" s="32">
+        <v>2.7891159999999999</v>
+      </c>
+      <c r="G48" s="33">
+        <v>57.755102000000001</v>
+      </c>
+      <c r="H48" s="34">
+        <v>39.387754999999999</v>
+      </c>
+      <c r="I48" s="32">
+        <v>1.4573210000000001</v>
+      </c>
+      <c r="J48" s="33">
+        <v>39.972240999999997</v>
+      </c>
+      <c r="K48" s="34">
+        <v>58.501041000000001</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="19"/>
+      <c r="C49" s="21">
+        <v>47.168523</v>
+      </c>
+      <c r="D49" s="19">
+        <v>40.362268</v>
+      </c>
+      <c r="E49" s="20">
+        <v>12.46787</v>
+      </c>
+      <c r="F49" s="21">
+        <v>28.219328999999998</v>
+      </c>
+      <c r="G49" s="19">
+        <v>46.425009000000003</v>
+      </c>
+      <c r="H49" s="20">
+        <v>25.355661999999999</v>
+      </c>
+      <c r="I49" s="21">
+        <v>14.729105000000001</v>
+      </c>
+      <c r="J49" s="19">
+        <v>43.595148000000002</v>
+      </c>
+      <c r="K49" s="20">
+        <v>41.675747000000001</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="19"/>
+      <c r="C50" s="21">
+        <v>32.121299</v>
+      </c>
+      <c r="D50" s="19">
+        <v>46.924404000000003</v>
+      </c>
+      <c r="E50" s="20">
+        <v>20.954297</v>
+      </c>
+      <c r="F50" s="21">
+        <v>15.669413</v>
+      </c>
+      <c r="G50" s="19">
+        <v>48.746265999999999</v>
+      </c>
+      <c r="H50" s="20">
+        <v>35.602426000000001</v>
+      </c>
+      <c r="I50" s="21">
+        <v>7.9767609999999998</v>
+      </c>
+      <c r="J50" s="19">
+        <v>42.696421999999998</v>
+      </c>
+      <c r="K50" s="20">
+        <v>49.317594999999997</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="22"/>
+      <c r="C51" s="15">
+        <v>22.322246</v>
+      </c>
+      <c r="D51" s="16">
+        <v>55.809722999999998</v>
+      </c>
+      <c r="E51" s="17">
+        <v>21.869205000000001</v>
+      </c>
+      <c r="F51" s="15">
+        <v>11.83192</v>
+      </c>
+      <c r="G51" s="16">
+        <v>52.105026000000002</v>
+      </c>
+      <c r="H51" s="17">
+        <v>36.061444999999999</v>
+      </c>
+      <c r="I51" s="15">
+        <v>6.0586380000000002</v>
+      </c>
+      <c r="J51" s="16">
+        <v>42.902127999999998</v>
+      </c>
+      <c r="K51" s="17">
+        <v>51.040056999999997</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="19"/>
+      <c r="C52" s="21">
+        <v>53.465085000000002</v>
+      </c>
+      <c r="D52" s="19">
+        <v>34.817300000000003</v>
+      </c>
+      <c r="E52" s="20">
+        <v>11.722899</v>
+      </c>
+      <c r="F52" s="21">
+        <v>30.090025000000001</v>
+      </c>
+      <c r="G52" s="19">
+        <v>47.558515999999997</v>
+      </c>
+      <c r="H52" s="20">
+        <v>22.353259000000001</v>
+      </c>
+      <c r="I52" s="21">
+        <v>15.30462</v>
+      </c>
+      <c r="J52" s="19">
+        <v>44.791091000000002</v>
+      </c>
+      <c r="K52" s="20">
+        <v>39.902448</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="19"/>
+      <c r="C53" s="21">
+        <v>50.863931000000001</v>
+      </c>
+      <c r="D53" s="19">
+        <v>38.912886999999998</v>
+      </c>
+      <c r="E53" s="20">
+        <v>10.205183999999999</v>
+      </c>
+      <c r="F53" s="21">
+        <v>42.060975999999997</v>
+      </c>
+      <c r="G53" s="19">
+        <v>41.085366</v>
+      </c>
+      <c r="H53" s="20">
+        <v>16.841463000000001</v>
+      </c>
+      <c r="I53" s="21">
+        <v>21.401305000000001</v>
+      </c>
+      <c r="J53" s="19">
+        <v>40.426056000000003</v>
+      </c>
+      <c r="K53" s="20">
+        <v>38.160325</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="19"/>
+      <c r="C54" s="21">
+        <v>44.893726999999998</v>
+      </c>
+      <c r="D54" s="19">
+        <v>45.523217000000002</v>
+      </c>
+      <c r="E54" s="20">
+        <v>9.5830559999999991</v>
+      </c>
+      <c r="F54" s="21">
+        <v>29.200668</v>
+      </c>
+      <c r="G54" s="19">
+        <v>51.608865000000002</v>
+      </c>
+      <c r="H54" s="20">
+        <v>19.199739999999998</v>
+      </c>
+      <c r="I54" s="21">
+        <v>15.255989</v>
+      </c>
+      <c r="J54" s="19">
+        <v>48.891497999999999</v>
+      </c>
+      <c r="K54" s="20">
+        <v>35.843119000000002</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="19"/>
+      <c r="C55" s="21">
+        <v>58.999527</v>
+      </c>
+      <c r="D55" s="19">
+        <v>30.163527999999999</v>
+      </c>
+      <c r="E55" s="20">
+        <v>10.836945</v>
+      </c>
+      <c r="F55" s="21">
+        <v>32.445678000000001</v>
+      </c>
+      <c r="G55" s="19">
+        <v>43.173737000000003</v>
+      </c>
+      <c r="H55" s="20">
+        <v>24.379643999999999</v>
+      </c>
+      <c r="I55" s="21">
+        <v>16.492857999999998</v>
+      </c>
+      <c r="J55" s="19">
+        <v>41.497194999999998</v>
+      </c>
+      <c r="K55" s="20">
+        <v>42.008018999999997</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="19"/>
+      <c r="C56" s="21">
+        <v>65.487782999999993</v>
+      </c>
+      <c r="D56" s="19">
+        <v>31.868611000000001</v>
+      </c>
+      <c r="E56" s="20">
+        <v>2.641991</v>
+      </c>
+      <c r="F56" s="21">
+        <v>35.723731000000001</v>
+      </c>
+      <c r="G56" s="19">
+        <v>55.947640999999997</v>
+      </c>
+      <c r="H56" s="20">
+        <v>8.3286280000000001</v>
+      </c>
+      <c r="I56" s="21">
+        <v>18.051655</v>
+      </c>
+      <c r="J56" s="19">
+        <v>55.645842000000002</v>
+      </c>
+      <c r="K56" s="20">
+        <v>26.302503000000002</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="19"/>
+      <c r="C57" s="21">
+        <v>26.966830000000002</v>
+      </c>
+      <c r="D57" s="19">
+        <v>36.875385999999999</v>
+      </c>
+      <c r="E57" s="20">
+        <v>36.157784999999997</v>
+      </c>
+      <c r="F57" s="21">
+        <v>19.070425</v>
+      </c>
+      <c r="G57" s="19">
+        <v>33.647364000000003</v>
+      </c>
+      <c r="H57" s="20">
+        <v>47.282210999999997</v>
+      </c>
+      <c r="I57" s="21">
+        <v>10.352755</v>
+      </c>
+      <c r="J57" s="19">
+        <v>32.385685000000002</v>
+      </c>
+      <c r="K57" s="20">
+        <v>57.261226000000001</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="19"/>
+      <c r="C58" s="21">
+        <v>51.170138000000001</v>
+      </c>
+      <c r="D58" s="19">
+        <v>39.211481999999997</v>
+      </c>
+      <c r="E58" s="20">
+        <v>9.6183789999999991</v>
+      </c>
+      <c r="F58" s="21">
+        <v>28.603383000000001</v>
+      </c>
+      <c r="G58" s="19">
+        <v>49.765134000000003</v>
+      </c>
+      <c r="H58" s="20">
+        <v>21.632881000000001</v>
+      </c>
+      <c r="I58" s="21">
+        <v>14.845946</v>
+      </c>
+      <c r="J58" s="19">
+        <v>48.255780999999999</v>
+      </c>
+      <c r="K58" s="20">
+        <v>36.899706999999999</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="19"/>
+      <c r="C59" s="21">
+        <v>24.780787</v>
+      </c>
+      <c r="D59" s="19">
+        <v>59.569780999999999</v>
+      </c>
+      <c r="E59" s="20">
+        <v>15.645113</v>
+      </c>
+      <c r="F59" s="21">
+        <v>11.054773000000001</v>
+      </c>
+      <c r="G59" s="19">
+        <v>61.847219000000003</v>
+      </c>
+      <c r="H59" s="20">
+        <v>27.094971999999999</v>
+      </c>
+      <c r="I59" s="21">
+        <v>5.9674170000000002</v>
+      </c>
+      <c r="J59" s="19">
+        <v>52.418928999999999</v>
+      </c>
+      <c r="K59" s="20">
+        <v>41.616757</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="C60" s="23">
+        <v>26.751874999999998</v>
+      </c>
+      <c r="D60" s="24">
+        <v>54.586606000000003</v>
+      </c>
+      <c r="E60" s="25">
+        <v>18.661518999999998</v>
+      </c>
+      <c r="F60" s="23">
+        <v>10.348469</v>
+      </c>
+      <c r="G60" s="24">
+        <v>55.269841999999997</v>
+      </c>
+      <c r="H60" s="25">
+        <v>34.378835000000002</v>
+      </c>
+      <c r="I60" s="23">
+        <v>5.2817109999999996</v>
+      </c>
+      <c r="J60" s="24">
+        <v>42.320689999999999</v>
+      </c>
+      <c r="K60" s="25">
+        <v>52.406339000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="26"/>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28" t="s">
+      <c r="C61" s="28">
+        <v>37.033625000000001</v>
+      </c>
+      <c r="D61" s="29">
+        <v>38.611424999999997</v>
+      </c>
+      <c r="E61" s="30">
+        <v>24.354949999999999</v>
+      </c>
+      <c r="F61" s="28">
+        <v>23.669861000000001</v>
+      </c>
+      <c r="G61" s="29">
+        <v>41.236294000000001</v>
+      </c>
+      <c r="H61" s="30">
+        <v>35.093789000000001</v>
+      </c>
+      <c r="I61" s="28">
+        <v>12.416002000000001</v>
+      </c>
+      <c r="J61" s="29">
+        <v>39.042233000000003</v>
+      </c>
+      <c r="K61" s="30">
+        <v>48.541536999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="31"/>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
+      <c r="C62" s="50">
+        <v>34.227625000000003</v>
+      </c>
+      <c r="D62" s="51">
+        <v>41.649068999999997</v>
+      </c>
+      <c r="E62" s="52">
+        <v>24.123305999999999</v>
+      </c>
+      <c r="F62" s="50">
+        <v>22.152432000000001</v>
+      </c>
+      <c r="G62" s="51">
+        <v>43.505257</v>
+      </c>
+      <c r="H62" s="52">
+        <v>34.342222999999997</v>
+      </c>
+      <c r="I62" s="50">
+        <v>11.685482</v>
+      </c>
+      <c r="J62" s="51">
+        <v>39.918756000000002</v>
+      </c>
+      <c r="K62" s="52">
+        <v>48.395673000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="48"/>
+      <c r="B63" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="53"/>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50" t="s">
+      <c r="C63" s="50">
+        <v>9.2020949999999999</v>
+      </c>
+      <c r="D63" s="51">
+        <v>34.490136</v>
+      </c>
+      <c r="E63" s="52">
+        <v>56.307651</v>
+      </c>
+      <c r="F63" s="50">
+        <v>4.234286</v>
+      </c>
+      <c r="G63" s="51">
+        <v>24.546479999999999</v>
+      </c>
+      <c r="H63" s="52">
+        <v>71.219249000000005</v>
+      </c>
+      <c r="I63" s="50">
+        <v>2.3053270000000001</v>
+      </c>
+      <c r="J63" s="51">
+        <v>20.249369000000002</v>
+      </c>
+      <c r="K63" s="52">
+        <v>77.445267999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="53"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55" t="s">
+      <c r="C64" s="55">
+        <v>7.0975010000000003</v>
+      </c>
+      <c r="D64" s="56">
+        <v>44.141989000000002</v>
+      </c>
+      <c r="E64" s="57">
+        <v>48.760446999999999</v>
+      </c>
+      <c r="F64" s="55">
+        <v>3.8280379999999998</v>
+      </c>
+      <c r="G64" s="56">
+        <v>35.510100999999999</v>
+      </c>
+      <c r="H64" s="57">
+        <v>60.662064999999998</v>
+      </c>
+      <c r="I64" s="55">
+        <v>2.0966450000000001</v>
+      </c>
+      <c r="J64" s="56">
+        <v>29.747641000000002</v>
+      </c>
+      <c r="K64" s="57">
+        <v>68.155298999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="58"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="59" t="s">
+      <c r="C65" s="59">
+        <v>11.751545</v>
+      </c>
+      <c r="D65" s="60">
+        <v>34.767761999999998</v>
+      </c>
+      <c r="E65" s="61">
+        <v>53.480643000000001</v>
+      </c>
+      <c r="F65" s="59">
+        <v>5.175853</v>
+      </c>
+      <c r="G65" s="60">
+        <v>23.044561000000002</v>
+      </c>
+      <c r="H65" s="61">
+        <v>71.779595999999998</v>
+      </c>
+      <c r="I65" s="59">
+        <v>2.804427</v>
+      </c>
+      <c r="J65" s="60">
+        <v>18.195329000000001</v>
+      </c>
+      <c r="K65" s="61">
+        <v>79.000275000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="53"/>
+      <c r="B66" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="62"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="63" t="s">
+      <c r="C66" s="63">
+        <v>14.196493</v>
+      </c>
+      <c r="D66" s="64">
+        <v>35.918858999999998</v>
+      </c>
+      <c r="E66" s="65">
+        <v>49.884554000000001</v>
+      </c>
+      <c r="F66" s="63">
+        <v>9.4404400000000006</v>
+      </c>
+      <c r="G66" s="64">
+        <v>30.054991999999999</v>
+      </c>
+      <c r="H66" s="65">
+        <v>60.504551999999997</v>
+      </c>
+      <c r="I66" s="63">
+        <v>5.0188709999999999</v>
+      </c>
+      <c r="J66" s="64">
+        <v>25.939440000000001</v>
+      </c>
+      <c r="K66" s="65">
+        <v>69.041638000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="53"/>
+      <c r="B67" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="66"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="59" t="s">
+      <c r="C67" s="59">
+        <v>37.685093999999999</v>
+      </c>
+      <c r="D67" s="60">
+        <v>38.885638999999998</v>
+      </c>
+      <c r="E67" s="61">
+        <v>23.429206000000001</v>
+      </c>
+      <c r="F67" s="59">
+        <v>24.462617000000002</v>
+      </c>
+      <c r="G67" s="60">
+        <v>41.645198000000001</v>
+      </c>
+      <c r="H67" s="61">
+        <v>33.89199</v>
+      </c>
+      <c r="I67" s="59">
+        <v>12.960115999999999</v>
+      </c>
+      <c r="J67" s="60">
+        <v>38.550766000000003</v>
+      </c>
+      <c r="K67" s="61">
+        <v>48.489038000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="53"/>
+      <c r="B68" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="62"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="59" t="s">
+      <c r="C68" s="59">
+        <v>35.068154</v>
+      </c>
+      <c r="D68" s="60">
+        <v>35.531668000000003</v>
+      </c>
+      <c r="E68" s="61">
+        <v>29.400061000000001</v>
+      </c>
+      <c r="F68" s="59">
+        <v>23.107607999999999</v>
+      </c>
+      <c r="G68" s="60">
+        <v>37.090944999999998</v>
+      </c>
+      <c r="H68" s="61">
+        <v>39.801372999999998</v>
+      </c>
+      <c r="I68" s="59">
+        <v>12.195179</v>
+      </c>
+      <c r="J68" s="60">
+        <v>35.566054000000001</v>
+      </c>
+      <c r="K68" s="61">
+        <v>52.238616</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="53"/>
+      <c r="B69" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="62"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="59" t="s">
+      <c r="C69" s="59">
+        <v>30.098949999999999</v>
+      </c>
+      <c r="D69" s="60">
+        <v>53.631076</v>
+      </c>
+      <c r="E69" s="61">
+        <v>16.269974000000001</v>
+      </c>
+      <c r="F69" s="59">
+        <v>20.855775000000001</v>
+      </c>
+      <c r="G69" s="60">
+        <v>52.335583</v>
+      </c>
+      <c r="H69" s="61">
+        <v>26.808492000000001</v>
+      </c>
+      <c r="I69" s="59">
+        <v>11.164329</v>
+      </c>
+      <c r="J69" s="60">
+        <v>46.029043999999999</v>
+      </c>
+      <c r="K69" s="61">
+        <v>42.806702999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="53"/>
+      <c r="B70" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="62"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="59" t="s">
+      <c r="C70" s="59">
+        <v>31.515464000000001</v>
+      </c>
+      <c r="D70" s="60">
+        <v>52.762602000000001</v>
+      </c>
+      <c r="E70" s="61">
+        <v>15.722117000000001</v>
+      </c>
+      <c r="F70" s="59">
+        <v>19.722605999999999</v>
+      </c>
+      <c r="G70" s="60">
+        <v>54.304223999999998</v>
+      </c>
+      <c r="H70" s="61">
+        <v>25.973268000000001</v>
+      </c>
+      <c r="I70" s="59">
+        <v>10.501934</v>
+      </c>
+      <c r="J70" s="60">
+        <v>48.642091999999998</v>
+      </c>
+      <c r="K70" s="61">
+        <v>40.856374000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="53"/>
+      <c r="B71" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="62"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="59" t="s">
+      <c r="C71" s="59">
+        <v>37.033625000000001</v>
+      </c>
+      <c r="D71" s="60">
+        <v>38.611424999999997</v>
+      </c>
+      <c r="E71" s="61">
+        <v>24.354949999999999</v>
+      </c>
+      <c r="F71" s="59">
+        <v>23.669861000000001</v>
+      </c>
+      <c r="G71" s="60">
+        <v>41.236294000000001</v>
+      </c>
+      <c r="H71" s="61">
+        <v>35.093789000000001</v>
+      </c>
+      <c r="I71" s="59">
+        <v>12.416002000000001</v>
+      </c>
+      <c r="J71" s="60">
+        <v>39.042233000000003</v>
+      </c>
+      <c r="K71" s="61">
+        <v>48.541536999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="53"/>
+      <c r="B72" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="62"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="59" t="s">
+      <c r="C72" s="59">
+        <v>50.830216</v>
+      </c>
+      <c r="D72" s="60">
+        <v>34.932164</v>
+      </c>
+      <c r="E72" s="61">
+        <v>14.236882</v>
+      </c>
+      <c r="F72" s="59">
+        <v>33.352972000000001</v>
+      </c>
+      <c r="G72" s="60">
+        <v>40.873984</v>
+      </c>
+      <c r="H72" s="61">
+        <v>25.773208</v>
+      </c>
+      <c r="I72" s="59">
+        <v>17.428712999999998</v>
+      </c>
+      <c r="J72" s="60">
+        <v>38.682386000000001</v>
+      </c>
+      <c r="K72" s="61">
+        <v>43.889152000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="53"/>
+      <c r="B73" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="62"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="59" t="s">
+      <c r="C73" s="59">
+        <v>25.780023</v>
+      </c>
+      <c r="D73" s="60">
+        <v>53.551551000000003</v>
+      </c>
+      <c r="E73" s="61">
+        <v>20.668731000000001</v>
+      </c>
+      <c r="F73" s="59">
+        <v>17.064999</v>
+      </c>
+      <c r="G73" s="60">
+        <v>53.559199999999997</v>
+      </c>
+      <c r="H73" s="61">
+        <v>29.375556</v>
+      </c>
+      <c r="I73" s="59">
+        <v>9.1337299999999999</v>
+      </c>
+      <c r="J73" s="60">
+        <v>46.810277999999997</v>
+      </c>
+      <c r="K73" s="61">
+        <v>44.055616999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="53"/>
+      <c r="B74" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="62"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="59" t="s">
+      <c r="C74" s="59">
+        <v>15.034286</v>
+      </c>
+      <c r="D74" s="60">
+        <v>41.245299000000003</v>
+      </c>
+      <c r="E74" s="61">
+        <v>43.719569</v>
+      </c>
+      <c r="F74" s="59">
+        <v>8.8972789999999993</v>
+      </c>
+      <c r="G74" s="60">
+        <v>30.379622000000001</v>
+      </c>
+      <c r="H74" s="61">
+        <v>60.722113</v>
+      </c>
+      <c r="I74" s="59">
+        <v>4.9627980000000003</v>
+      </c>
+      <c r="J74" s="60">
+        <v>27.699721</v>
+      </c>
+      <c r="K74" s="61">
+        <v>67.336476000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="53"/>
+      <c r="B75" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="62"/>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="59" t="s">
+      <c r="C75" s="66">
+        <v>41.328119999999998</v>
+      </c>
+      <c r="D75" s="67">
+        <v>49.909337999999998</v>
+      </c>
+      <c r="E75" s="68">
+        <v>8.7614300000000007</v>
+      </c>
+      <c r="F75" s="66">
+        <v>21.187419999999999</v>
+      </c>
+      <c r="G75" s="67">
+        <v>60.923687999999999</v>
+      </c>
+      <c r="H75" s="68">
+        <v>17.888269000000001</v>
+      </c>
+      <c r="I75" s="66">
+        <v>10.795590000000001</v>
+      </c>
+      <c r="J75" s="67">
+        <v>53.406190000000002</v>
+      </c>
+      <c r="K75" s="68">
+        <v>35.797901000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="53"/>
+      <c r="B76" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="69"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="70" t="s">
+      <c r="C76" s="70">
+        <v>7.1421520000000003</v>
+      </c>
+      <c r="D76" s="71">
+        <v>41.150582</v>
+      </c>
+      <c r="E76" s="72">
+        <v>51.706769999999999</v>
+      </c>
+      <c r="F76" s="70">
+        <v>4.296691</v>
+      </c>
+      <c r="G76" s="71">
+        <v>30.093091000000001</v>
+      </c>
+      <c r="H76" s="72">
+        <v>65.610156000000003</v>
+      </c>
+      <c r="I76" s="70">
+        <v>2.4819550000000001</v>
+      </c>
+      <c r="J76" s="71">
+        <v>25.161826999999999</v>
+      </c>
+      <c r="K76" s="72">
+        <v>72.356594000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="53"/>
+      <c r="B77" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="72"/>
-      <c r="K76" s="73"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="59" t="s">
+      <c r="C77" s="59">
+        <v>5.7772230000000002</v>
+      </c>
+      <c r="D77" s="60">
+        <v>40.905777999999998</v>
+      </c>
+      <c r="E77" s="61">
+        <v>53.316904000000001</v>
+      </c>
+      <c r="F77" s="59">
+        <v>2.8613810000000002</v>
+      </c>
+      <c r="G77" s="60">
+        <v>32.150936999999999</v>
+      </c>
+      <c r="H77" s="61">
+        <v>64.987893</v>
+      </c>
+      <c r="I77" s="59">
+        <v>1.5803590000000001</v>
+      </c>
+      <c r="J77" s="60">
+        <v>27.688866999999998</v>
+      </c>
+      <c r="K77" s="61">
+        <v>70.730127999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="53"/>
+      <c r="B78" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="62"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="59" t="s">
+      <c r="C78" s="59">
+        <v>0.51722500000000005</v>
+      </c>
+      <c r="D78" s="60">
+        <v>33.307805000000002</v>
+      </c>
+      <c r="E78" s="61">
+        <v>66.174696999999995</v>
+      </c>
+      <c r="F78" s="59">
+        <v>0.44927899999999998</v>
+      </c>
+      <c r="G78" s="60">
+        <v>28.304299</v>
+      </c>
+      <c r="H78" s="61">
+        <v>71.246273000000002</v>
+      </c>
+      <c r="I78" s="59">
+        <v>0.28946699999999997</v>
+      </c>
+      <c r="J78" s="60">
+        <v>26.742965999999999</v>
+      </c>
+      <c r="K78" s="61">
+        <v>72.966815999999994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="53"/>
+      <c r="B79" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="62"/>
-    </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="63" t="s">
+      <c r="C79" s="63">
+        <v>1.3984719999999999</v>
+      </c>
+      <c r="D79" s="64">
+        <v>31.988741000000001</v>
+      </c>
+      <c r="E79" s="65">
+        <v>66.612900999999994</v>
+      </c>
+      <c r="F79" s="63">
+        <v>0.81572</v>
+      </c>
+      <c r="G79" s="64">
+        <v>26.722702999999999</v>
+      </c>
+      <c r="H79" s="65">
+        <v>72.461786000000004</v>
+      </c>
+      <c r="I79" s="63">
+        <v>0.516648</v>
+      </c>
+      <c r="J79" s="64">
+        <v>24.290749999999999</v>
+      </c>
+      <c r="K79" s="65">
+        <v>75.192475000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="53"/>
+      <c r="B80" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="66"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="70" t="s">
+      <c r="C80" s="70">
+        <v>27.271231</v>
+      </c>
+      <c r="D80" s="71">
+        <v>46.121437</v>
+      </c>
+      <c r="E80" s="72">
+        <v>26.606344</v>
+      </c>
+      <c r="F80" s="70">
+        <v>14.616040999999999</v>
+      </c>
+      <c r="G80" s="71">
+        <v>50.518954000000001</v>
+      </c>
+      <c r="H80" s="72">
+        <v>34.865595999999996</v>
+      </c>
+      <c r="I80" s="70">
+        <v>7.6312350000000002</v>
+      </c>
+      <c r="J80" s="71">
+        <v>45.024307999999998</v>
+      </c>
+      <c r="K80" s="72">
+        <v>47.344859999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="53"/>
+      <c r="B81" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="72"/>
-      <c r="K80" s="73"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="59" t="s">
+      <c r="C81" s="59">
+        <v>9.6256690000000003</v>
+      </c>
+      <c r="D81" s="60">
+        <v>30.417016</v>
+      </c>
+      <c r="E81" s="61">
+        <v>59.957132999999999</v>
+      </c>
+      <c r="F81" s="59">
+        <v>6.0438900000000002</v>
+      </c>
+      <c r="G81" s="60">
+        <v>25.389614999999999</v>
+      </c>
+      <c r="H81" s="61">
+        <v>68.565804</v>
+      </c>
+      <c r="I81" s="59">
+        <v>3.3322409999999998</v>
+      </c>
+      <c r="J81" s="60">
+        <v>23.104018</v>
+      </c>
+      <c r="K81" s="61">
+        <v>73.563974000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="53"/>
+      <c r="B82" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="62"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="59" t="s">
+      <c r="C82" s="59">
+        <v>34.867702000000001</v>
+      </c>
+      <c r="D82" s="60">
+        <v>41.237554000000003</v>
+      </c>
+      <c r="E82" s="61">
+        <v>23.894833999999999</v>
+      </c>
+      <c r="F82" s="59">
+        <v>22.887640000000001</v>
+      </c>
+      <c r="G82" s="60">
+        <v>42.821040000000004</v>
+      </c>
+      <c r="H82" s="61">
+        <v>34.291165999999997</v>
+      </c>
+      <c r="I82" s="59">
+        <v>12.079815999999999</v>
+      </c>
+      <c r="J82" s="60">
+        <v>39.422167999999999</v>
+      </c>
+      <c r="K82" s="61">
+        <v>48.497880000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="53"/>
+      <c r="B83" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="62"/>
-    </row>
-    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="63" t="s">
+      <c r="C83" s="63">
+        <v>9.1672659999999997</v>
+      </c>
+      <c r="D83" s="64">
+        <v>34.825057999999999</v>
+      </c>
+      <c r="E83" s="65">
+        <v>56.007564000000002</v>
+      </c>
+      <c r="F83" s="63">
+        <v>4.0475510000000003</v>
+      </c>
+      <c r="G83" s="64">
+        <v>24.459475999999999</v>
+      </c>
+      <c r="H83" s="65">
+        <v>71.49306</v>
+      </c>
+      <c r="I83" s="63">
+        <v>2.1994479999999998</v>
+      </c>
+      <c r="J83" s="64">
+        <v>19.955044000000001</v>
+      </c>
+      <c r="K83" s="65">
+        <v>77.845444000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="53"/>
+      <c r="B84" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="66"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="70" t="s">
+      <c r="C84" s="70">
+        <v>46.590322999999998</v>
+      </c>
+      <c r="D84" s="71">
+        <v>39.635077000000003</v>
+      </c>
+      <c r="E84" s="72">
+        <v>13.774255999999999</v>
+      </c>
+      <c r="F84" s="70">
+        <v>30.574151000000001</v>
+      </c>
+      <c r="G84" s="71">
+        <v>45.357852000000001</v>
+      </c>
+      <c r="H84" s="72">
+        <v>24.068145000000001</v>
+      </c>
+      <c r="I84" s="70">
+        <v>15.999841</v>
+      </c>
+      <c r="J84" s="71">
+        <v>42.035131999999997</v>
+      </c>
+      <c r="K84" s="72">
+        <v>41.965077000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="53"/>
+      <c r="B85" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="72"/>
-      <c r="K84" s="73"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="74" t="s">
+      <c r="C85" s="59">
+        <v>30.616690999999999</v>
+      </c>
+      <c r="D85" s="60">
+        <v>27.399549</v>
+      </c>
+      <c r="E85" s="61">
+        <v>41.983449999999998</v>
+      </c>
+      <c r="F85" s="59">
+        <v>14.398681</v>
+      </c>
+      <c r="G85" s="60">
+        <v>31.285812</v>
+      </c>
+      <c r="H85" s="61">
+        <v>54.316209000000001</v>
+      </c>
+      <c r="I85" s="59">
+        <v>7.5925130000000003</v>
+      </c>
+      <c r="J85" s="60">
+        <v>27.019179999999999</v>
+      </c>
+      <c r="K85" s="61">
+        <v>65.389259999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="53"/>
+      <c r="B86" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="62"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="59" t="s">
+      <c r="C86" s="59">
+        <v>25.246206000000001</v>
+      </c>
+      <c r="D86" s="60">
+        <v>44.903998000000001</v>
+      </c>
+      <c r="E86" s="61">
+        <v>29.849961</v>
+      </c>
+      <c r="F86" s="59">
+        <v>15.734458999999999</v>
+      </c>
+      <c r="G86" s="60">
+        <v>43.263722000000001</v>
+      </c>
+      <c r="H86" s="61">
+        <v>41.001677999999998</v>
+      </c>
+      <c r="I86" s="59">
+        <v>8.4705080000000006</v>
+      </c>
+      <c r="J86" s="60">
+        <v>39.061320000000002</v>
+      </c>
+      <c r="K86" s="61">
+        <v>52.467919999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="53"/>
+      <c r="B87" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="62"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="59" t="s">
+      <c r="C87" s="59">
+        <v>16.610049</v>
+      </c>
+      <c r="D87" s="60">
+        <v>33.422446000000001</v>
+      </c>
+      <c r="E87" s="61">
+        <v>49.967455000000001</v>
+      </c>
+      <c r="F87" s="59">
+        <v>6.6790979999999998</v>
+      </c>
+      <c r="G87" s="60">
+        <v>24.219477000000001</v>
+      </c>
+      <c r="H87" s="61">
+        <v>69.101326</v>
+      </c>
+      <c r="I87" s="59">
+        <v>3.5312939999999999</v>
+      </c>
+      <c r="J87" s="60">
+        <v>18.329149000000001</v>
+      </c>
+      <c r="K87" s="61">
+        <v>78.139572999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="53"/>
+      <c r="B88" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="62"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="59" t="s">
+      <c r="C88" s="59">
+        <v>7.2598060000000002</v>
+      </c>
+      <c r="D88" s="60">
+        <v>42.380246</v>
+      </c>
+      <c r="E88" s="61">
+        <v>50.361370999999998</v>
+      </c>
+      <c r="F88" s="59">
+        <v>4.4644560000000002</v>
+      </c>
+      <c r="G88" s="60">
+        <v>33.010081999999997</v>
+      </c>
+      <c r="H88" s="61">
+        <v>62.524892000000001</v>
+      </c>
+      <c r="I88" s="59">
+        <v>2.6168930000000001</v>
+      </c>
+      <c r="J88" s="60">
+        <v>29.640642</v>
+      </c>
+      <c r="K88" s="61">
+        <v>67.742176999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="53"/>
+      <c r="B89" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="62"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="59" t="s">
+      <c r="C89" s="59">
+        <v>3.7535949999999998</v>
+      </c>
+      <c r="D89" s="60">
+        <v>39.125428999999997</v>
+      </c>
+      <c r="E89" s="61">
+        <v>57.120977000000003</v>
+      </c>
+      <c r="F89" s="59">
+        <v>2.2112810000000001</v>
+      </c>
+      <c r="G89" s="60">
+        <v>24.823405999999999</v>
+      </c>
+      <c r="H89" s="61">
+        <v>72.965410000000006</v>
+      </c>
+      <c r="I89" s="59">
+        <v>1.341934</v>
+      </c>
+      <c r="J89" s="60">
+        <v>21.097766</v>
+      </c>
+      <c r="K89" s="61">
+        <v>77.560203000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="53"/>
+      <c r="B90" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="62"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="62"/>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
-      <c r="B90" s="63" t="s">
+      <c r="C90" s="63">
+        <v>0.71800399999999998</v>
+      </c>
+      <c r="D90" s="64">
+        <v>27.486526000000001</v>
+      </c>
+      <c r="E90" s="65">
+        <v>71.794816999999995</v>
+      </c>
+      <c r="F90" s="63">
+        <v>0.48148800000000003</v>
+      </c>
+      <c r="G90" s="64">
+        <v>23.609453999999999</v>
+      </c>
+      <c r="H90" s="65">
+        <v>75.908927000000006</v>
+      </c>
+      <c r="I90" s="63">
+        <v>0.301483</v>
+      </c>
+      <c r="J90" s="64">
+        <v>22.166717999999999</v>
+      </c>
+      <c r="K90" s="65">
+        <v>77.531576999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="53"/>
+      <c r="B91" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="64"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="66"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="70" t="s">
+      <c r="C91" s="70">
+        <v>45.830562</v>
+      </c>
+      <c r="D91" s="71">
+        <v>42.208984000000001</v>
+      </c>
+      <c r="E91" s="72">
+        <v>11.960298999999999</v>
+      </c>
+      <c r="F91" s="70">
+        <v>28.277562</v>
+      </c>
+      <c r="G91" s="71">
+        <v>49.143453000000001</v>
+      </c>
+      <c r="H91" s="72">
+        <v>22.579228000000001</v>
+      </c>
+      <c r="I91" s="70">
+        <v>14.758875</v>
+      </c>
+      <c r="J91" s="71">
+        <v>45.097904999999997</v>
+      </c>
+      <c r="K91" s="72">
+        <v>40.143219999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="53"/>
+      <c r="B92" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="71"/>
-      <c r="J91" s="72"/>
-      <c r="K91" s="73"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="59" t="s">
+      <c r="C92" s="59">
+        <v>23.656745000000001</v>
+      </c>
+      <c r="D92" s="60">
+        <v>43.277557999999999</v>
+      </c>
+      <c r="E92" s="61">
+        <v>33.065001000000002</v>
+      </c>
+      <c r="F92" s="59">
+        <v>10.269211</v>
+      </c>
+      <c r="G92" s="60">
+        <v>36.419429999999998</v>
+      </c>
+      <c r="H92" s="61">
+        <v>53.310792999999997</v>
+      </c>
+      <c r="I92" s="59">
+        <v>5.425827</v>
+      </c>
+      <c r="J92" s="60">
+        <v>27.832329000000001</v>
+      </c>
+      <c r="K92" s="61">
+        <v>66.741748000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="53"/>
+      <c r="B93" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="62"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="59" t="s">
+      <c r="C93" s="59">
+        <v>28.060020000000002</v>
+      </c>
+      <c r="D93" s="60">
+        <v>44.496915000000001</v>
+      </c>
+      <c r="E93" s="61">
+        <v>27.427831999999999</v>
+      </c>
+      <c r="F93" s="59">
+        <v>24.286971000000001</v>
+      </c>
+      <c r="G93" s="60">
+        <v>43.774343999999999</v>
+      </c>
+      <c r="H93" s="61">
+        <v>31.875864</v>
+      </c>
+      <c r="I93" s="59">
+        <v>12.492037</v>
+      </c>
+      <c r="J93" s="60">
+        <v>39.170594999999999</v>
+      </c>
+      <c r="K93" s="61">
+        <v>48.318257000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="53"/>
+      <c r="B94" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="62"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="62"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="59" t="s">
+      <c r="C94" s="59">
+        <v>17.266373999999999</v>
+      </c>
+      <c r="D94" s="60">
+        <v>39.143763</v>
+      </c>
+      <c r="E94" s="61">
+        <v>43.583213000000001</v>
+      </c>
+      <c r="F94" s="59">
+        <v>12.634888999999999</v>
+      </c>
+      <c r="G94" s="60">
+        <v>34.303334999999997</v>
+      </c>
+      <c r="H94" s="61">
+        <v>53.059202999999997</v>
+      </c>
+      <c r="I94" s="59">
+        <v>6.6200039999999998</v>
+      </c>
+      <c r="J94" s="60">
+        <v>31.789911</v>
+      </c>
+      <c r="K94" s="61">
+        <v>61.588774999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="53"/>
+      <c r="B95" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="62"/>
-      <c r="I94" s="60"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="62"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="59" t="s">
+      <c r="C95" s="59">
+        <v>52.158285999999997</v>
+      </c>
+      <c r="D95" s="60">
+        <v>36.709589000000001</v>
+      </c>
+      <c r="E95" s="61">
+        <v>11.132125</v>
+      </c>
+      <c r="F95" s="59">
+        <v>32.649830999999999</v>
+      </c>
+      <c r="G95" s="60">
+        <v>46.220426000000003</v>
+      </c>
+      <c r="H95" s="61">
+        <v>21.129807</v>
+      </c>
+      <c r="I95" s="59">
+        <v>16.800872999999999</v>
+      </c>
+      <c r="J95" s="60">
+        <v>43.816249999999997</v>
+      </c>
+      <c r="K95" s="61">
+        <v>39.382680000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="53"/>
+      <c r="B96" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="62"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="62"/>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
-      <c r="B96" s="63" t="s">
+      <c r="C96" s="63">
+        <v>14.428352</v>
+      </c>
+      <c r="D96" s="64">
+        <v>32.174233999999998</v>
+      </c>
+      <c r="E96" s="65">
+        <v>53.398409999999998</v>
+      </c>
+      <c r="F96" s="63">
+        <v>6.5854189999999999</v>
+      </c>
+      <c r="G96" s="64">
+        <v>31.042660999999999</v>
+      </c>
+      <c r="H96" s="65">
+        <v>62.371288</v>
+      </c>
+      <c r="I96" s="63">
+        <v>3.4787840000000001</v>
+      </c>
+      <c r="J96" s="64">
+        <v>26.731645</v>
+      </c>
+      <c r="K96" s="65">
+        <v>69.789570999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="53"/>
+      <c r="B97" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="66"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="70" t="s">
+      <c r="C97" s="70">
+        <v>39.514048000000003</v>
+      </c>
+      <c r="D97" s="71">
+        <v>42.220498999999997</v>
+      </c>
+      <c r="E97" s="72">
+        <v>18.265381000000001</v>
+      </c>
+      <c r="F97" s="70">
+        <v>25.383731000000001</v>
+      </c>
+      <c r="G97" s="71">
+        <v>45.571857999999999</v>
+      </c>
+      <c r="H97" s="72">
+        <v>29.044584</v>
+      </c>
+      <c r="I97" s="70">
+        <v>13.350788</v>
+      </c>
+      <c r="J97" s="71">
+        <v>41.917712999999999</v>
+      </c>
+      <c r="K97" s="72">
+        <v>44.731366999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="53"/>
+      <c r="B98" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="72"/>
-      <c r="K97" s="73"/>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="64"/>
-      <c r="J98" s="65"/>
-      <c r="K98" s="66"/>
+      <c r="C98" s="63">
+        <v>24.981539999999999</v>
+      </c>
+      <c r="D98" s="64">
+        <v>38.366751999999998</v>
+      </c>
+      <c r="E98" s="65">
+        <v>36.651798999999997</v>
+      </c>
+      <c r="F98" s="63">
+        <v>13.403176</v>
+      </c>
+      <c r="G98" s="64">
+        <v>32.013407000000001</v>
+      </c>
+      <c r="H98" s="65">
+        <v>54.583300000000001</v>
+      </c>
+      <c r="I98" s="63">
+        <v>7.0622210000000001</v>
+      </c>
+      <c r="J98" s="64">
+        <v>25.639408</v>
+      </c>
+      <c r="K98" s="65">
+        <v>67.298451</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="68"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="77"/>
+        <v>162</v>
+      </c>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
+      <c r="K100" s="76"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
-      <c r="K101" s="77"/>
+        <v>163</v>
+      </c>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="76"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
-      <c r="K102" s="77"/>
+        <v>164</v>
+      </c>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
+      <c r="K102" s="76"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
-      <c r="K103" s="77"/>
+        <v>165</v>
+      </c>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="76"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="76"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+      <c r="K105" s="76"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="77"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
+      <c r="K106" s="76"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
-      <c r="K104" s="77"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
-      <c r="K105" s="77"/>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="78"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-      <c r="K106" s="77"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
-      <c r="K107" s="77"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
+      <c r="K107" s="76"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
-      <c r="K108" s="77"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
+      <c r="K108" s="76"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76"/>
+      <c r="K109" s="76"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
-      <c r="K109" s="77"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+      <c r="K110" s="76"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-      <c r="K110" s="77"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-      <c r="K111" s="77"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
+      <c r="K111" s="76"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-      <c r="K112" s="77"/>
+        <v>168</v>
+      </c>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
+      <c r="K112" s="76"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="80"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="77"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
+      <c r="K113" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D626D801-2992-44C3-9CD6-08717ACBFA5E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{ED86F22B-A0E9-4C83-A897-94957DC370A9}"/>
-    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{95CF0F3E-6C23-4B27-92E9-3C347B89CC83}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{C211AD37-8E1B-4742-8B4E-6B7EEF69A899}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{B346FF6B-8545-4C2D-84A9-0E25BA440185}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{6FD80C89-BF62-49D1-AE95-262168CBB467}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{39D05ACD-E878-4252-9D2D-3C0F74BD4185}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{1752027E-6DAD-442A-AA88-208E2D22631C}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{6D49693E-2E99-45CB-BBEC-8029D6DAD5FE}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{5076725A-2E35-47C0-AE18-13D1F86F9434}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2025_Tableau_annexe_Tab40.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab40.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D177E3-10CA-4B2B-B88E-7DD8CE0E154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4ED1F3-1572-445A-BDE0-6331E1D0E583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{70FD6A3B-427A-4346-8D93-BF83801E9997}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{090BCC19-320A-4DDE-9293-42DC2D90239B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab40" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Wittgenstein Centre Human Capital Data Explorer, 2023</t>
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DAFCBD-E745-41BF-B7DC-FBBE2CF2DE3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F4BE-A450-4964-A673-872A256C8965}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1451,15 +1451,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="15.5703125" style="80" customWidth="1"/>
-    <col min="12" max="26" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="15.54296875" style="80" customWidth="1"/>
+    <col min="12" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1473,7 +1473,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>29.327186999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>69.743650000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>47.023021999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>47.739251000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>48.759608</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>42.799140999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>55.334932999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>64.797332999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>47.946420000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>56.139750999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>32</v>
@@ -1891,7 +1891,7 @@
         <v>47.732447000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>29.746596</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>53.746381999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>32.246589</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>33.756815000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>44.507739999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>43.893085999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>37.595793</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>37.126649999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>47.980415999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>51</v>
@@ -2239,7 +2239,7 @@
         <v>42.809136000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>47.866838999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>46.893537000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>45.919725</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>37.305638999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>50.552016000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>40.453223000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>80.293076999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>66</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>47.355806000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>73.577235999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>45.433639999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>56.830179999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>74</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>52.235990000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>76</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>36.072045000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>78</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>42.152734000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>80</v>
@@ -2762,7 +2762,7 @@
         <v>42.492614000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>81</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>74.650398999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>83</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>72.293017000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>66.438098999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>87</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>37.251375000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>89</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>64.841061999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>91</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>61.32009</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>93</v>
@@ -3005,7 +3005,7 @@
         <v>70.072470999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>94</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>43.461129</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>29.458458</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>98</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>58.501041000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>41.675747000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>49.317594999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>104</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>51.040056999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>106</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>39.902448</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>108</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>38.160325</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>110</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>35.843119000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>112</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>42.008018999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>114</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>26.302503000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>57.261226000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>36.899706999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>120</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>41.616757</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>122</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>52.406339000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>124</v>
@@ -3563,7 +3563,7 @@
         <v>48.541536999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>125</v>
@@ -3596,7 +3596,7 @@
         <v>48.395673000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>126</v>
@@ -3629,7 +3629,7 @@
         <v>77.445267999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>127</v>
@@ -3662,7 +3662,7 @@
         <v>68.155298999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>128</v>
@@ -3695,7 +3695,7 @@
         <v>79.000275000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>129</v>
@@ -3728,7 +3728,7 @@
         <v>69.041638000000006</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>130</v>
@@ -3761,7 +3761,7 @@
         <v>48.489038000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>131</v>
@@ -3794,7 +3794,7 @@
         <v>52.238616</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>132</v>
@@ -3827,7 +3827,7 @@
         <v>42.806702999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>133</v>
@@ -3860,7 +3860,7 @@
         <v>40.856374000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>134</v>
@@ -3893,7 +3893,7 @@
         <v>48.541536999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>135</v>
@@ -3926,7 +3926,7 @@
         <v>43.889152000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>136</v>
@@ -3959,7 +3959,7 @@
         <v>44.055616999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>137</v>
@@ -3992,7 +3992,7 @@
         <v>67.336476000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>138</v>
@@ -4025,7 +4025,7 @@
         <v>35.797901000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>139</v>
@@ -4058,7 +4058,7 @@
         <v>72.356594000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>140</v>
@@ -4091,7 +4091,7 @@
         <v>70.730127999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>141</v>
@@ -4124,7 +4124,7 @@
         <v>72.966815999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>142</v>
@@ -4157,7 +4157,7 @@
         <v>75.192475000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>143</v>
@@ -4190,7 +4190,7 @@
         <v>47.344859999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>144</v>
@@ -4223,7 +4223,7 @@
         <v>73.563974000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>145</v>
@@ -4256,7 +4256,7 @@
         <v>48.497880000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>146</v>
@@ -4289,7 +4289,7 @@
         <v>77.845444000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>147</v>
@@ -4322,7 +4322,7 @@
         <v>41.965077000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>148</v>
@@ -4355,7 +4355,7 @@
         <v>65.389259999999993</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>149</v>
@@ -4388,7 +4388,7 @@
         <v>52.467919999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>150</v>
@@ -4421,7 +4421,7 @@
         <v>78.139572999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>151</v>
@@ -4454,7 +4454,7 @@
         <v>67.742176999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>152</v>
@@ -4487,7 +4487,7 @@
         <v>77.560203000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>153</v>
@@ -4520,7 +4520,7 @@
         <v>77.531576999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>154</v>
@@ -4553,7 +4553,7 @@
         <v>40.143219999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>155</v>
@@ -4586,7 +4586,7 @@
         <v>66.741748000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>156</v>
@@ -4619,7 +4619,7 @@
         <v>48.318257000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>157</v>
@@ -4652,7 +4652,7 @@
         <v>61.588774999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>158</v>
@@ -4685,7 +4685,7 @@
         <v>39.382680000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>159</v>
@@ -4718,7 +4718,7 @@
         <v>69.789570999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>160</v>
@@ -4751,7 +4751,7 @@
         <v>44.731366999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>161</v>
@@ -4784,7 +4784,7 @@
         <v>67.298451</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -4797,7 +4797,7 @@
       <c r="J99" s="67"/>
       <c r="K99" s="67"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
@@ -4811,7 +4811,7 @@
       <c r="J100" s="76"/>
       <c r="K100" s="76"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="J101" s="76"/>
       <c r="K101" s="76"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>164</v>
       </c>
@@ -4839,7 +4839,7 @@
       <c r="J102" s="76"/>
       <c r="K102" s="76"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="J103" s="76"/>
       <c r="K103" s="76"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>166</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="J104" s="76"/>
       <c r="K104" s="76"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -4878,7 +4878,7 @@
       <c r="J105" s="76"/>
       <c r="K105" s="76"/>
     </row>
-    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -4890,7 +4890,7 @@
       <c r="J106" s="76"/>
       <c r="K106" s="76"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>167</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="J107" s="76"/>
       <c r="K107" s="76"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -4916,7 +4916,7 @@
       <c r="J108" s="76"/>
       <c r="K108" s="76"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>169</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="J109" s="76"/>
       <c r="K109" s="76"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>170</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="J110" s="76"/>
       <c r="K110" s="76"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>171</v>
       </c>
@@ -4958,7 +4958,7 @@
       <c r="J111" s="76"/>
       <c r="K111" s="76"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="J112" s="76"/>
       <c r="K112" s="76"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -4986,11 +4986,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{6FD80C89-BF62-49D1-AE95-262168CBB467}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{39D05ACD-E878-4252-9D2D-3C0F74BD4185}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{1752027E-6DAD-442A-AA88-208E2D22631C}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{6D49693E-2E99-45CB-BBEC-8029D6DAD5FE}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{5076725A-2E35-47C0-AE18-13D1F86F9434}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{9A4364CE-6115-425C-9711-B14F79CF9600}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{9FDE6A93-374C-4927-B86C-910173993E98}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{D53A0BB1-8C45-4323-AD26-63036D76F4CF}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{9131BEB8-51E2-43FB-A215-1B253449FF50}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{08CB5D19-0162-4F23-A6BC-020D337A8F55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2025_Tableau_annexe_Tab40.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab40.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4ED1F3-1572-445A-BDE0-6331E1D0E583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24CC1D72-2235-4B27-BE92-1DD2A979572E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{090BCC19-320A-4DDE-9293-42DC2D90239B}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{4584FF24-A784-4376-8AD9-E58D8718F74F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab40" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab40'!$A$2:$K$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab40'!$A$1:$H$99</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,48 +33,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
-  <si>
-    <t>Table 40: Projected youth education profiles</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Percentage of population 15-29 with less than primary education (medium scenario), 2020</t>
-  </si>
-  <si>
-    <t>Percentage of population 15-29 with primary but not secondary education (medium scenario), 2020</t>
-  </si>
-  <si>
-    <t>Percentage of population 15-29 with at least secondary education (medium scenario), 2020</t>
-  </si>
-  <si>
-    <t>Percentage of population 15-29 with less than primary education (medium scenario), 2040</t>
-  </si>
-  <si>
-    <t>Percentage of population 15-29 with primary but not secondary education (medium scenario), 2040</t>
-  </si>
-  <si>
-    <t>Percentage of population 15-29 with at least secondary education (medium scenario), 2040</t>
-  </si>
-  <si>
-    <t>Percentage of population 15-29 with less than primary education (accelerated scenario), 2040</t>
-  </si>
-  <si>
-    <t>Percentage of population 15-29 with primary but not secondary education (accelerated scenario), 2040</t>
-  </si>
-  <si>
-    <t>Percentage of population 15-29 with at least secondary education (accelerated scenario), 2040</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="173">
+  <si>
+    <t>Tableau 40 : Profils projetés d’éducation des jeunes</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Population de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario moyen), 2020</t>
+  </si>
+  <si>
+    <t>Population de 15 à 29 ans ayant une éducation primaire mais pas secondaire (scénario moyen), 2020</t>
+  </si>
+  <si>
+    <t>Population de 15 à 29 ans ayant au moins une éducation secondaire (scénario moyen), 2020</t>
+  </si>
+  <si>
+    <t>Population de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario moyen), 2040</t>
+  </si>
+  <si>
+    <t>Population de 15 à 29 ans ayant une éducation primaire mais pas secondaire (scénario moyen), 2040</t>
+  </si>
+  <si>
+    <t>Population de 15 à 29 ans ayant au moins une éducation secondaire (scénario moyen), 2040</t>
+  </si>
+  <si>
+    <t>Population de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario accéléré), 2040</t>
+  </si>
+  <si>
+    <t>Population de 15 à 29 ans ayant une éducation primaire mais pas secondaire (scénario accéléré), 2040</t>
+  </si>
+  <si>
+    <t>Population de 15 à 29 ans ayant au moins une éducation secondaire (scénario accéléré), 2040</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -114,19 +110,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -135,7 +131,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -147,58 +146,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -210,13 +209,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -234,7 +233,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -252,79 +251,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -336,7 +335,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -348,7 +347,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -360,13 +359,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -396,7 +395,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -411,22 +410,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -435,19 +434,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -465,94 +464,95 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: Wittgenstein Centre Human Capital Data Explorer, 2023</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élévé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits Etats insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits Etats insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, Etats fragiles</t>
+  </si>
+  <si>
+    <t>RDM, Etats fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Source : Explorateur de données sur le capital humain du Wittgenstein Centre, 2023.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,16 +695,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -931,7 +921,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1159,7 +1149,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1443,19 +1432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F4BE-A450-4964-A673-872A256C8965}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F766381-4D12-4876-ACB8-8EDD29E8C729}">
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="15.54296875" style="80" customWidth="1"/>
+    <col min="3" max="11" width="15.54296875" style="79" customWidth="1"/>
     <col min="12" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1473,7 +1459,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1859,9 +1845,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="28">
         <v>23.948453000000001</v>
@@ -1893,10 +1881,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="21">
         <v>57.082452000000004</v>
@@ -1928,10 +1916,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="21">
         <v>19.720203999999999</v>
@@ -1963,10 +1951,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="21">
         <v>59.415174</v>
@@ -1998,10 +1986,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="32">
         <v>57.583973</v>
@@ -2033,10 +2021,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="32">
         <v>17.231992999999999</v>
@@ -2068,10 +2056,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="15">
         <v>26.191576000000001</v>
@@ -2103,10 +2091,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="32">
         <v>19.099695000000001</v>
@@ -2138,10 +2126,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="32">
         <v>14.982224</v>
@@ -2173,10 +2161,10 @@
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="36">
         <v>25.99278</v>
@@ -2207,9 +2195,11 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="28">
         <v>31.147048000000002</v>
@@ -2241,10 +2231,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="40">
         <v>19.823993000000002</v>
@@ -2276,10 +2266,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="21">
         <v>62.544978999999998</v>
@@ -2311,10 +2301,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="21">
         <v>62.101182999999999</v>
@@ -2346,10 +2336,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="21">
         <v>62.246045000000002</v>
@@ -2381,10 +2371,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="21">
         <v>24.41825</v>
@@ -2416,10 +2406,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="21">
         <v>47.390289000000003</v>
@@ -2451,10 +2441,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="21">
         <v>2.961198</v>
@@ -2486,10 +2476,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="21">
         <v>49.177028</v>
@@ -2521,10 +2511,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="21">
         <v>0.43668099999999999</v>
@@ -2556,10 +2546,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="21">
         <v>67.699134999999998</v>
@@ -2591,10 +2581,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="32">
         <v>52.921660000000003</v>
@@ -2626,10 +2616,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="21">
         <v>56.975710999999997</v>
@@ -2661,10 +2651,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="21">
         <v>20.760885999999999</v>
@@ -2696,10 +2686,10 @@
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="23">
         <v>39.096207999999997</v>
@@ -2730,9 +2720,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="28">
         <v>46.015591000000001</v>
@@ -2764,10 +2756,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="44">
         <v>10.168232</v>
@@ -2799,10 +2791,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="21">
         <v>15.203874000000001</v>
@@ -2834,10 +2826,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="32">
         <v>11.819462</v>
@@ -2869,10 +2861,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="32">
         <v>51.145859000000002</v>
@@ -2904,10 +2896,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="21">
         <v>19.848362000000002</v>
@@ -2939,10 +2931,10 @@
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="36">
         <v>1.5933029999999999</v>
@@ -2973,9 +2965,11 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="28">
         <v>15.124534000000001</v>
@@ -3007,10 +3001,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="40">
         <v>33.926670999999999</v>
@@ -3042,10 +3036,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="21">
         <v>77.052477999999994</v>
@@ -3077,10 +3071,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="32">
         <v>11.695216</v>
@@ -3112,10 +3106,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="21">
         <v>47.168523</v>
@@ -3147,10 +3141,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="21">
         <v>32.121299</v>
@@ -3182,10 +3176,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="15">
         <v>22.322246</v>
@@ -3217,10 +3211,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="21">
         <v>53.465085000000002</v>
@@ -3252,10 +3246,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="21">
         <v>50.863931000000001</v>
@@ -3287,10 +3281,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="21">
         <v>44.893726999999998</v>
@@ -3322,10 +3316,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" s="21">
         <v>58.999527</v>
@@ -3357,10 +3351,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" s="21">
         <v>65.487782999999993</v>
@@ -3392,10 +3386,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="21">
         <v>26.966830000000002</v>
@@ -3427,10 +3421,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="21">
         <v>51.170138000000001</v>
@@ -3462,10 +3456,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="21">
         <v>24.780787</v>
@@ -3497,10 +3491,10 @@
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="23">
         <v>26.751874999999998</v>
@@ -3533,7 +3527,7 @@
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C61" s="28">
         <v>37.033625000000001</v>
@@ -3566,7 +3560,7 @@
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="50">
         <v>34.227625000000003</v>
@@ -3599,7 +3593,7 @@
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="50">
         <v>9.2020949999999999</v>
@@ -3632,7 +3626,7 @@
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="55">
         <v>7.0975010000000003</v>
@@ -3665,7 +3659,7 @@
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C65" s="59">
         <v>11.751545</v>
@@ -3698,7 +3692,7 @@
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C66" s="63">
         <v>14.196493</v>
@@ -3731,7 +3725,7 @@
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C67" s="59">
         <v>37.685093999999999</v>
@@ -3764,7 +3758,7 @@
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C68" s="59">
         <v>35.068154</v>
@@ -3797,7 +3791,7 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C69" s="59">
         <v>30.098949999999999</v>
@@ -3830,7 +3824,7 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C70" s="59">
         <v>31.515464000000001</v>
@@ -3863,7 +3857,7 @@
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71" s="59">
         <v>37.033625000000001</v>
@@ -3896,7 +3890,7 @@
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C72" s="59">
         <v>50.830216</v>
@@ -3929,7 +3923,7 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C73" s="59">
         <v>25.780023</v>
@@ -3962,7 +3956,7 @@
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74" s="59">
         <v>15.034286</v>
@@ -3995,7 +3989,7 @@
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C75" s="66">
         <v>41.328119999999998</v>
@@ -4028,7 +4022,7 @@
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C76" s="70">
         <v>7.1421520000000003</v>
@@ -4061,7 +4055,7 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C77" s="59">
         <v>5.7772230000000002</v>
@@ -4094,7 +4088,7 @@
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C78" s="59">
         <v>0.51722500000000005</v>
@@ -4127,7 +4121,7 @@
     <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" s="63">
         <v>1.3984719999999999</v>
@@ -4160,7 +4154,7 @@
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C80" s="70">
         <v>27.271231</v>
@@ -4193,7 +4187,7 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C81" s="59">
         <v>9.6256690000000003</v>
@@ -4226,7 +4220,7 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C82" s="59">
         <v>34.867702000000001</v>
@@ -4259,7 +4253,7 @@
     <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C83" s="63">
         <v>9.1672659999999997</v>
@@ -4292,7 +4286,7 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C84" s="70">
         <v>46.590322999999998</v>
@@ -4325,7 +4319,7 @@
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C85" s="59">
         <v>30.616690999999999</v>
@@ -4358,7 +4352,7 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C86" s="59">
         <v>25.246206000000001</v>
@@ -4391,7 +4385,7 @@
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C87" s="59">
         <v>16.610049</v>
@@ -4424,7 +4418,7 @@
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C88" s="59">
         <v>7.2598060000000002</v>
@@ -4457,7 +4451,7 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C89" s="59">
         <v>3.7535949999999998</v>
@@ -4490,7 +4484,7 @@
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C90" s="63">
         <v>0.71800399999999998</v>
@@ -4523,7 +4517,7 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C91" s="70">
         <v>45.830562</v>
@@ -4556,7 +4550,7 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C92" s="59">
         <v>23.656745000000001</v>
@@ -4589,7 +4583,7 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C93" s="59">
         <v>28.060020000000002</v>
@@ -4622,7 +4616,7 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C94" s="59">
         <v>17.266373999999999</v>
@@ -4655,7 +4649,7 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C95" s="59">
         <v>52.158285999999997</v>
@@ -4868,6 +4862,9 @@
       <c r="K104" s="76"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -4879,6 +4876,9 @@
       <c r="K105" s="76"/>
     </row>
     <row r="106" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -4890,10 +4890,8 @@
       <c r="J106" s="76"/>
       <c r="K106" s="76"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>167</v>
-      </c>
+    <row r="107" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -4905,7 +4903,9 @@
       <c r="K107" s="76"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="80" t="s">
+        <v>171</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -4917,9 +4917,7 @@
       <c r="K108" s="76"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>169</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -4931,8 +4929,8 @@
       <c r="K109" s="76"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>170</v>
+      <c r="B110" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -4945,8 +4943,8 @@
       <c r="K110" s="76"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>171</v>
+      <c r="B111" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -4959,8 +4957,8 @@
       <c r="K111" s="76"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>168</v>
+      <c r="B112" s="80" t="s">
+        <v>172</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -4973,7 +4971,9 @@
       <c r="K112" s="76"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="80" t="s">
+        <v>170</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -4984,16 +4984,54 @@
       <c r="J113" s="76"/>
       <c r="K113" s="76"/>
     </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B115" s="78"/>
+    </row>
+    <row r="125" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B125" s="77"/>
+    </row>
+    <row r="126" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B126" s="77"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B127" s="78"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B128" s="78"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="78"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="78"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B131" s="78"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="78"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{9A4364CE-6115-425C-9711-B14F79CF9600}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{9FDE6A93-374C-4927-B86C-910173993E98}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{D53A0BB1-8C45-4323-AD26-63036D76F4CF}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{9131BEB8-51E2-43FB-A215-1B253449FF50}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{08CB5D19-0162-4F23-A6BC-020D337A8F55}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{70A26E1F-6935-4706-BB01-D73A75F1C144}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7B8EC590-BDB4-4059-A7FF-FCD158870702}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{DB26F215-82EE-4AB6-B5E1-12DC04E6BA21}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{D14473CF-BFD9-4565-A8E1-F115D02DB5A2}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{F9458BD4-89A9-4A01-84BA-C9E5B676B005}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
